--- a/Número de procesos y tiempo promedio.xlsx
+++ b/Número de procesos y tiempo promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DARKTONE\Desktop\UVG\Tercer Semestre\Algoritmos\Hoja de trabajo No. 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CACE8E8-B17B-4410-BB6F-639E98BF8F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A72E54-4C7C-4905-A355-E7A331B03FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{30D8EDB2-9648-4B4F-BD41-35F7E51F47D9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>Procesos</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>2 CPU</t>
+  </si>
+  <si>
+    <t>Ritmo 10</t>
+  </si>
+  <si>
+    <t>Ritmo 5</t>
+  </si>
+  <si>
+    <t>Ritmo 1</t>
+  </si>
+  <si>
+    <t>1 CPU</t>
+  </si>
+  <si>
+    <t>100 RAM</t>
+  </si>
+  <si>
+    <t>200 RAM</t>
   </si>
 </sst>
 </file>
@@ -415,22 +433,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FA551-DBA6-4770-87C8-FA685A0E48C2}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,50 +480,171 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>25</v>
       </c>
       <c r="B3" s="1">
-        <v>1.7837032178151799</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2267409655052401</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.04395638020139</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3935487896537899</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.86035632240684</v>
+      </c>
+      <c r="I3" s="1">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>14.004455039100501</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11.8925604865621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>2.4274371372131598</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1732338369326398</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.84101248339015</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.6318196074972899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.8086099592123599</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.7638671780837001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.1761835758286097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0674001648564202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3211970100718502</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.7354326661970101</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.9813763262723501</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.3989815982201201</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <v>33.5885549865935</v>
+      </c>
+      <c r="K5" s="1">
+        <v>21.134748684172401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>3.3837479585122501</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2548773113795799</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.9733613361300499</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.8120808070562799</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.1083669407391401</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
+      <c r="J6" s="1">
+        <v>34.137124417813801</v>
+      </c>
+      <c r="K6" s="1">
+        <v>26.704496409984799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,43 +654,171 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>25</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>2.3580338699264498</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.6806758995914699</v>
+      </c>
+      <c r="E12" s="1">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.9693436661516499</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.77362920187885</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.4316300936328803</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.4656524865829201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>50</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>2.3724460553377802</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0646900217689699</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.8209355706694401</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.2399156576583401</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10.404545120293401</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10.7258926365802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>100</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>2.3514804030049699</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.82574295049721</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.8328461875444502</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.1743201493947901</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1">
+        <v>17.452419598157</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15.544302727169301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>200</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>2.4853279779359898</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.7630335432291999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.7519661495377599</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.0576411817700602</v>
+      </c>
+      <c r="I15" s="1">
+        <v>200</v>
+      </c>
+      <c r="J15" s="1">
+        <v>69.593358190188795</v>
+      </c>
+      <c r="K15" s="1">
+        <v>47.012766766408397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,42 +828,314 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>2.62135014386853</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6402890550781</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.9972517327494701</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.0931071158122201</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.66240505697276</v>
+      </c>
+      <c r="I22" s="1">
+        <v>25</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.1217301552316901</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.2268267063677998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>50</v>
       </c>
       <c r="B23" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.6182631152578599</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.1284116945167102</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.7109092323858099</v>
+      </c>
+      <c r="I23" s="1">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.2442234673935202</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.3869604688522901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>1.83</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3634264375418002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.57284252485696</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.4711906410556499</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.7450116561365201</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4.0223150604726001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.1843158857940002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>200</v>
       </c>
       <c r="B25" s="1">
-        <v>1.3702021267047799</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>2.4444178572364699</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.62554022025666</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.36891756164166</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.7620676155907999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3.17485768459919</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.8308417677825402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.2802683938441999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.74495158461924</v>
+      </c>
+      <c r="E31" s="1">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.2139840395458101</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.5448609652174501</v>
+      </c>
+      <c r="I31" s="1">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.4667048912545102</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.03698299429966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.7477682562488099</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.28173049946892</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.8775313940256799</v>
+      </c>
+      <c r="I32" s="1">
+        <v>50</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.84714421774909</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2.3273167264064099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.1923242164199701</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.7867182698248001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.1142318532943101</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.6080525441028399</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.7714756480561098</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2.2063855595092901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>200</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.1907194041031399</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.67563971654097</v>
+      </c>
+      <c r="E34" s="1">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.3107400534110001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.7035678250058599</v>
+      </c>
+      <c r="I34" s="1">
+        <v>200</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3.3590687684793998</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2.6221726312723401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Número de procesos y tiempo promedio.xlsx
+++ b/Número de procesos y tiempo promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DARKTONE\Desktop\UVG\Tercer Semestre\Algoritmos\Hoja de trabajo No. 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A72E54-4C7C-4905-A355-E7A331B03FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B70EA6-3C12-430B-BC70-3C954BABE84F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{30D8EDB2-9648-4B4F-BD41-35F7E51F47D9}"/>
   </bookViews>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FA551-DBA6-4770-87C8-FA685A0E48C2}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -504,7 +502,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="1">
-        <v>3.2267409655052401</v>
+        <v>2.84720710080662</v>
       </c>
       <c r="C3" s="1">
         <v>2.04395638020139</v>
@@ -513,19 +511,19 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>2.3935487896537899</v>
+        <v>2.72290869198426</v>
       </c>
       <c r="G3" s="1">
-        <v>1.86035632240684</v>
+        <v>1.9957455552218799</v>
       </c>
       <c r="I3" s="1">
         <v>25</v>
       </c>
       <c r="J3" s="1">
-        <v>14.004455039100501</v>
+        <v>5.2154636703621504</v>
       </c>
       <c r="K3" s="1">
-        <v>11.8925604865621</v>
+        <v>5.0521390309110803</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -533,28 +531,28 @@
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>2.1732338369326398</v>
+        <v>2.84552241201217</v>
       </c>
       <c r="C4" s="1">
-        <v>1.84101248339015</v>
+        <v>1.81907116384734</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
       </c>
       <c r="F4" s="1">
-        <v>2.6318196074972899</v>
+        <v>2.9758989987567599</v>
       </c>
       <c r="G4" s="1">
-        <v>1.8086099592123599</v>
+        <v>2.0597339977487601</v>
       </c>
       <c r="I4" s="1">
         <v>50</v>
       </c>
       <c r="J4" s="1">
-        <v>6.7638671780837001</v>
+        <v>17.0824840671484</v>
       </c>
       <c r="K4" s="1">
-        <v>6.1761835758286097</v>
+        <v>13.806472688861801</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -562,16 +560,16 @@
         <v>100</v>
       </c>
       <c r="B5" s="1">
-        <v>2.3211970100718502</v>
+        <v>2.1875880758172599</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7354326661970101</v>
+        <v>1.69557812916897</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>2.9813763262723501</v>
+        <v>2.56529643278509</v>
       </c>
       <c r="G5" s="1">
         <v>2.3989815982201201</v>
@@ -580,10 +578,10 @@
         <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>33.5885549865935</v>
+        <v>29.299322874224401</v>
       </c>
       <c r="K5" s="1">
-        <v>21.134748684172401</v>
+        <v>18.243605474790002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -591,10 +589,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2548773113795799</v>
+        <v>2.18918349455274</v>
       </c>
       <c r="C6" s="1">
-        <v>1.9733613361300499</v>
+        <v>1.6952580503544199</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -603,16 +601,16 @@
         <v>2.8120808070562799</v>
       </c>
       <c r="G6" s="1">
-        <v>2.1083669407391401</v>
+        <v>1.88709355377798</v>
       </c>
       <c r="I6" s="1">
         <v>200</v>
       </c>
       <c r="J6" s="1">
-        <v>34.137124417813801</v>
+        <v>73.429297029762395</v>
       </c>
       <c r="K6" s="1">
-        <v>26.704496409984799</v>
+        <v>39.420138453430702</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -678,10 +676,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>2.3580338699264498</v>
+        <v>1.7072244343728999</v>
       </c>
       <c r="C12" s="1">
-        <v>1.6806758995914699</v>
+        <v>1.9148926318613699</v>
       </c>
       <c r="E12" s="1">
         <v>25</v>
@@ -852,28 +850,28 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>2.6402890550781</v>
+        <v>2.04</v>
       </c>
       <c r="C22" s="1">
-        <v>1.9972517327494701</v>
+        <v>1.42828568570857</v>
       </c>
       <c r="E22" s="1">
         <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>2.0931071158122201</v>
+        <v>3.11944768859051</v>
       </c>
       <c r="G22" s="1">
-        <v>1.66240505697276</v>
+        <v>2.0770919684817999</v>
       </c>
       <c r="I22" s="1">
         <v>25</v>
       </c>
       <c r="J22" s="1">
-        <v>3.1217301552316901</v>
+        <v>3.6232989534435398</v>
       </c>
       <c r="K22" s="1">
-        <v>2.2268267063677998</v>
+        <v>2.3357173877071098</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -881,28 +879,28 @@
         <v>50</v>
       </c>
       <c r="B23" s="1">
-        <v>2.44</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1.6182631152578599</v>
+        <v>1.6572660052764301</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
       </c>
       <c r="F23" s="1">
-        <v>2.1284116945167102</v>
+        <v>2.2917008817116602</v>
       </c>
       <c r="G23" s="1">
-        <v>1.7109092323858099</v>
+        <v>1.57659259054217</v>
       </c>
       <c r="I23" s="1">
         <v>50</v>
       </c>
       <c r="J23" s="1">
-        <v>3.2442234673935202</v>
+        <v>3.3612493075810099</v>
       </c>
       <c r="K23" s="1">
-        <v>2.3869604688522901</v>
+        <v>2.4016888955013802</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,28 +908,28 @@
         <v>100</v>
       </c>
       <c r="B24" s="1">
-        <v>2.3634264375418002</v>
+        <v>2.2216144420414801</v>
       </c>
       <c r="C24" s="1">
-        <v>1.57284252485696</v>
+        <v>1.66388687383708</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
       </c>
       <c r="F24" s="1">
-        <v>2.4711906410556499</v>
+        <v>2.4095408813260901</v>
       </c>
       <c r="G24" s="1">
-        <v>1.7450116561365201</v>
+        <v>1.6677210442796699</v>
       </c>
       <c r="I24" s="1">
         <v>100</v>
       </c>
       <c r="J24" s="1">
-        <v>4.0223150604726001</v>
+        <v>3.4175288841464901</v>
       </c>
       <c r="K24" s="1">
-        <v>3.1843158857940002</v>
+        <v>2.8849892408554001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -939,28 +937,28 @@
         <v>200</v>
       </c>
       <c r="B25" s="1">
-        <v>2.4444178572364699</v>
+        <v>2.5675539528999001</v>
       </c>
       <c r="C25" s="1">
-        <v>1.62554022025666</v>
+        <v>1.70267854864918</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1">
-        <v>2.36891756164166</v>
+        <v>2.2350394903862298</v>
       </c>
       <c r="G25" s="1">
-        <v>1.7620676155907999</v>
+        <v>1.72692469676862</v>
       </c>
       <c r="I25" s="1">
         <v>200</v>
       </c>
       <c r="J25" s="1">
-        <v>3.17485768459919</v>
+        <v>2.74586047407964</v>
       </c>
       <c r="K25" s="1">
-        <v>2.8308417677825402</v>
+        <v>2.3702314644120199</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">

--- a/Número de procesos y tiempo promedio.xlsx
+++ b/Número de procesos y tiempo promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DARKTONE\Desktop\UVG\Tercer Semestre\Algoritmos\Hoja de trabajo No. 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B70EA6-3C12-430B-BC70-3C954BABE84F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C679A6-CC4B-409E-A684-A15F9774D065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{30D8EDB2-9648-4B4F-BD41-35F7E51F47D9}"/>
   </bookViews>
@@ -134,6 +134,4795 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$1:$K$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84720710080662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04395638020139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.72290869198426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9957455552218799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2154636703621504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0521390309110803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6475-4FE9-955D-961CF90399D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$1:$K$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.84552241201217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.81907116384734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9758989987567599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0597339977487601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0824840671484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.806472688861801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6475-4FE9-955D-961CF90399D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$1:$K$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1875880758172599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69557812916897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56529643278509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3989815982201201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.299322874224401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.243605474790002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6475-4FE9-955D-961CF90399D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$1:$K$1</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.18918349455274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6952580503544199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8120808070562799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.88709355377798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.429297029762395</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.420138453430702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6475-4FE9-955D-961CF90399D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="401544016"/>
+        <c:axId val="401548608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401544016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401548608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401548608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401544016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$10:$K$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$10:$K$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7072244343728999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9148926318613699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9693436661516499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.77362920187885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4316300936328803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4656524865829201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA8-46B1-B428-B76EBA3BC0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$10:$K$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$10:$K$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3724460553377802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0646900217689699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8209355706694401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2399156576583401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.404545120293401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7258926365802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA8-46B1-B428-B76EBA3BC0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$10:$K$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$10:$K$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3514804030049699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82574295049721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8328461875444502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1743201493947901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.452419598157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.544302727169301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA8-46B1-B428-B76EBA3BC0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$10:$K$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$10:$K$10</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$10:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4853279779359898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7630335432291999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7519661495377599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0576411817700602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.593358190188795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.012766766408397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAA8-46B1-B428-B76EBA3BC0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="533710816"/>
+        <c:axId val="533711472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="533710816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533711472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533711472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533710816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$20:$K$21</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$20:$K$20</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.42828568570857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.11944768859051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0770919684817999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6232989534435398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3357173877071098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D30B-4877-95D2-6E328908426A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$20:$K$21</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$20:$K$20</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6572660052764301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2917008817116602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57659259054217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3612493075810099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4016888955013802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D30B-4877-95D2-6E328908426A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$20:$K$21</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$20:$K$20</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2216144420414801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66388687383708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4095408813260901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6677210442796699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4175288841464901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8849892408554001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D30B-4877-95D2-6E328908426A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$20:$K$21</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$20:$K$20</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$20:$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100 RAM</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5675539528999001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.70267854864918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2350394903862298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.72692469676862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.74586047407964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3702314644120199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D30B-4877-95D2-6E328908426A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="403048360"/>
+        <c:axId val="403047048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="403048360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403047048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403047048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403048360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$29:$K$30</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$29:$K$29</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$29:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2802683938441999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.74495158461924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2139840395458101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5448609652174501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4667048912545102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.03698299429966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31DA-4626-98CF-FBFF8B0FCE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$29:$K$30</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$29:$K$29</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$29:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7477682562488099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.28173049946892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8775313940256799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.84714421774909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3273167264064099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31DA-4626-98CF-FBFF8B0FCE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$29:$K$30</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$29:$K$29</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$29:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1923242164199701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7867182698248001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1142318532943101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6080525441028399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7714756480561098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2063855595092901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31DA-4626-98CF-FBFF8B0FCE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$A$29:$K$30</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Hoja1!$A$29:$K$29</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Hoja1!$A$29:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200 RAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritmo 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ritmo 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200 Ram</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ritmo 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2 CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$34:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1907194041031399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67563971654097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3107400534110001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7035678250058599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3590687684793998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6221726312723401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31DA-4626-98CF-FBFF8B0FCE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="405005936"/>
+        <c:axId val="275986704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="405005936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275986704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275986704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405005936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F213CC-DA9D-4206-9CD7-465038EA6764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D211D4D6-85F7-4D35-B552-6840D338A20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582610DC-5F81-46AA-9BEF-3A6F1DE7512F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179504E1-6A49-498D-A6C4-84EE9E5CAFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,7 +5224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FA551-DBA6-4770-87C8-FA685A0E48C2}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -613,6 +5404,7 @@
         <v>39.420138453430702</v>
       </c>
     </row>
+    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
@@ -1137,5 +5929,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Número de procesos y tiempo promedio.xlsx
+++ b/Número de procesos y tiempo promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DARKTONE\Desktop\UVG\Tercer Semestre\Algoritmos\Hoja de trabajo No. 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C679A6-CC4B-409E-A684-A15F9774D065}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596D472-E599-4810-92D6-A8675A0C44D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{30D8EDB2-9648-4B4F-BD41-35F7E51F47D9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="19">
   <si>
     <t>Procesos</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>200 RAM</t>
+  </si>
+  <si>
+    <t>Universidad del Valle de Guatemala</t>
+  </si>
+  <si>
+    <t>Curso: Algoritmos y Estructuras de Datos</t>
+  </si>
+  <si>
+    <t>Nombre: Fernando José Garavito Ovando</t>
+  </si>
+  <si>
+    <t>Carné: 18071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: Jose Gabriel Block Staackmann </t>
+  </si>
+  <si>
+    <t>Carné: 18935</t>
+  </si>
+  <si>
+    <t>Hoja de Trabajo No. 5</t>
   </si>
 </sst>
 </file>
@@ -116,9 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5222,15 +5246,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537FA551-DBA6-4770-87C8-FA685A0E48C2}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="22" max="22" width="37.44140625" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5259,7 +5287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5287,8 +5315,11 @@
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -5316,8 +5347,11 @@
       <c r="K3" s="1">
         <v>5.0521390309110803</v>
       </c>
+      <c r="V3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -5345,8 +5379,14 @@
       <c r="K4" s="1">
         <v>13.806472688861801</v>
       </c>
+      <c r="V4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -5374,8 +5414,14 @@
       <c r="K5" s="1">
         <v>18.243605474790002</v>
       </c>
+      <c r="V5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>200</v>
       </c>
@@ -5403,9 +5449,12 @@
       <c r="K6" s="1">
         <v>39.420138453430702</v>
       </c>
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5434,7 +5483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -5492,7 +5541,7 @@
         <v>5.4656524865829201</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -5521,7 +5570,7 @@
         <v>10.7258926365802</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -5550,7 +5599,7 @@
         <v>15.544302727169301</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>200</v>
       </c>
@@ -5929,6 +5978,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>